--- a/data-raw/data-tidy/rural-yearbook/part03-agri-produce/01-machine/2016.xlsx
+++ b/data-raw/data-tidy/rural-yearbook/part03-agri-produce/01-machine/2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">variables</t>
   </si>
   <si>
-    <t xml:space="preserve">全国</t>
+    <t xml:space="preserve">安徽</t>
   </si>
   <si>
     <t xml:space="preserve">2016</t>
@@ -50,49 +50,31 @@
     <t xml:space="preserve">北京</t>
   </si>
   <si>
-    <t xml:space="preserve">天津</t>
+    <t xml:space="preserve">福建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘肃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贵州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海南</t>
   </si>
   <si>
     <t xml:space="preserve">河北</t>
   </si>
   <si>
-    <t xml:space="preserve">山西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉林</t>
+    <t xml:space="preserve">河南</t>
   </si>
   <si>
     <t xml:space="preserve">黑龙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安徽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南</t>
   </si>
   <si>
     <t xml:space="preserve">湖北</t>
@@ -101,43 +83,61 @@
     <t xml:space="preserve">湖南</t>
   </si>
   <si>
-    <t xml:space="preserve">广东</t>
+    <t xml:space="preserve">吉林</t>
   </si>
   <si>
-    <t xml:space="preserve">广西</t>
+    <t xml:space="preserve">江苏</t>
   </si>
   <si>
-    <t xml:space="preserve">海南</t>
+    <t xml:space="preserve">江西</t>
   </si>
   <si>
-    <t xml:space="preserve">重庆</t>
+    <t xml:space="preserve">辽宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内蒙古</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宁夏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陕西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
   </si>
   <si>
     <t xml:space="preserve">四川</t>
   </si>
   <si>
-    <t xml:space="preserve">贵州</t>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西藏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新疆</t>
   </si>
   <si>
     <t xml:space="preserve">云南</t>
   </si>
   <si>
-    <t xml:space="preserve">西藏</t>
+    <t xml:space="preserve">浙江</t>
   </si>
   <si>
-    <t xml:space="preserve">陕西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宁夏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆</t>
+    <t xml:space="preserve">重庆</t>
   </si>
   <si>
     <t xml:space="preserve">大中型拖拉机配套农具</t>
@@ -149,10 +149,25 @@
     <t xml:space="preserve">v7_sctj_nyjx_dztlj_pt</t>
   </si>
   <si>
+    <t xml:space="preserve">机播面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">千公顷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jbmj</t>
+  </si>
+  <si>
     <t xml:space="preserve">机动脱粒机</t>
   </si>
   <si>
     <t xml:space="preserve">v7_sctj_nyjx_jdtlj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机耕面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jgmj</t>
   </si>
   <si>
     <t xml:space="preserve">节水灌溉类机械</t>
@@ -162,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">v7_sctj_nyjx_jsgg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机收面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v7_sctj_nyjx_jsmj</t>
   </si>
   <si>
     <t xml:space="preserve">联合收获机</t>
@@ -569,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>645.4</v>
+        <v>24.65</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -589,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -609,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0.48</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -629,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9</v>
+        <v>17.52</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -649,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>13.8</v>
+        <v>3.0011</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -669,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>76.7</v>
+        <v>4.77</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -689,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3</v>
+        <v>4.24</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -709,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>4.1935</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -729,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>101.6</v>
+        <v>29.87</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -749,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8</v>
+        <v>43.27</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -769,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>101.56</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -789,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1.4</v>
+        <v>18.18</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -809,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>24.7</v>
+        <v>13.57</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -829,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -849,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>2.8</v>
+        <v>17.99</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -869,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>57.2</v>
+        <v>2.75</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -889,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>43.3</v>
+        <v>24.26</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -909,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>18.2</v>
+        <v>76.74</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -929,7 +950,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>13.6</v>
+        <v>5.73</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -949,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -969,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>4.8</v>
+        <v>645.3546</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -989,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>4.2</v>
+        <v>57.18</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1009,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>13.81</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1029,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>13.5</v>
+        <v>11.82</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1049,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>4.2</v>
+        <v>0.77</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1069,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>32.1</v>
+        <v>13.48</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1089,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>12.2</v>
+        <v>1.54</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1109,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>11.8</v>
+        <v>12.23</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1129,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>17.5</v>
+        <v>49.21</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1149,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>1.8</v>
+        <v>32.13</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1169,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1189,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>49.2</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1209,7 +1230,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>1028.1</v>
+        <v>209.45</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -1229,7 +1250,7 @@
         <v>42</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
@@ -1249,7 +1270,7 @@
         <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>3.2</v>
+        <v>9.77</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -1269,7 +1290,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>53.8</v>
+        <v>62.9</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -1289,7 +1310,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>27.2</v>
+        <v>32.8049</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1309,7 +1330,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>124.2</v>
+        <v>50.65</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1329,7 +1350,7 @@
         <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>32.3</v>
+        <v>10.3</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -1349,7 +1370,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>90</v>
+        <v>5.64</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1369,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>144.4</v>
+        <v>131.81</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -1389,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>2.1</v>
+        <v>329.5</v>
       </c>
       <c r="E43" t="s">
         <v>43</v>
@@ -1409,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>33.7</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
@@ -1429,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>2.2</v>
+        <v>114.67</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -1449,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>57</v>
+        <v>25.49</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -1469,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6</v>
+        <v>62.95</v>
       </c>
       <c r="E47" t="s">
         <v>43</v>
@@ -1489,7 +1510,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>3.4</v>
+        <v>76.05</v>
       </c>
       <c r="E48" t="s">
         <v>43</v>
@@ -1509,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>107.9</v>
+        <v>35.21</v>
       </c>
       <c r="E49" t="s">
         <v>43</v>
@@ -1529,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>100.7</v>
+        <v>32.76</v>
       </c>
       <c r="E50" t="s">
         <v>43</v>
@@ -1549,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="n">
-        <v>39.5</v>
+        <v>36.67</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
@@ -1569,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>6.4</v>
+        <v>15.57</v>
       </c>
       <c r="E52" t="s">
         <v>43</v>
@@ -1589,7 +1610,7 @@
         <v>42</v>
       </c>
       <c r="D53" t="n">
-        <v>4.6</v>
+        <v>25.79</v>
       </c>
       <c r="E53" t="s">
         <v>43</v>
@@ -1609,7 +1630,7 @@
         <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>7.4</v>
+        <v>1671.6149</v>
       </c>
       <c r="E54" t="s">
         <v>43</v>
@@ -1629,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>1.7</v>
+        <v>189.23</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
@@ -1649,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3</v>
+        <v>35.41</v>
       </c>
       <c r="E56" t="s">
         <v>43</v>
@@ -1669,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>6.5</v>
+        <v>21.73</v>
       </c>
       <c r="E57" t="s">
         <v>43</v>
@@ -1689,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="D58" t="n">
-        <v>1.6</v>
+        <v>0.28</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
@@ -1709,7 +1730,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>6.5</v>
+        <v>10.06</v>
       </c>
       <c r="E59" t="s">
         <v>43</v>
@@ -1729,7 +1750,7 @@
         <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>0.22</v>
       </c>
       <c r="E60" t="s">
         <v>43</v>
@@ -1749,7 +1770,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="n">
-        <v>21.3</v>
+        <v>13.4</v>
       </c>
       <c r="E61" t="s">
         <v>43</v>
@@ -1769,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>38.3</v>
+        <v>26.12</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
@@ -1789,7 +1810,7 @@
         <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>1.8</v>
+        <v>37.44</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
@@ -1809,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>9.5</v>
+        <v>11.72</v>
       </c>
       <c r="E64" t="s">
         <v>43</v>
@@ -1829,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>83.8</v>
+        <v>0.89</v>
       </c>
       <c r="E65" t="s">
         <v>43</v>
@@ -1849,13 +1870,13 @@
         <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>1063.8</v>
+        <v>5215.6</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
@@ -1869,13 +1890,13 @@
         <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4</v>
+        <v>81.4</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
@@ -1889,13 +1910,13 @@
         <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>152.7</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
@@ -1909,13 +1930,13 @@
         <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>19.3</v>
+        <v>1695</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
@@ -1929,13 +1950,13 @@
         <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>8.6</v>
+        <v>315.8</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
@@ -1949,13 +1970,13 @@
         <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>11.9</v>
+        <v>984.7</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
@@ -1969,13 +1990,13 @@
         <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>14.6</v>
+        <v>75.1</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
@@ -1989,13 +2010,13 @@
         <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>8.2</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
@@ -2009,13 +2030,13 @@
         <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>17.3</v>
+        <v>6669.4</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -2029,13 +2050,13 @@
         <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>10691.7</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -2049,13 +2070,13 @@
         <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>8.9</v>
+        <v>14341.4</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
@@ -2069,13 +2090,13 @@
         <v>45</v>
       </c>
       <c r="D77" t="n">
-        <v>36.3</v>
+        <v>2493.9</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
@@ -2089,13 +2110,13 @@
         <v>45</v>
       </c>
       <c r="D78" t="n">
-        <v>33.2</v>
+        <v>1473</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
@@ -2109,13 +2130,13 @@
         <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>5230.3</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
@@ -2129,13 +2150,13 @@
         <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>28.8</v>
+        <v>4663.1</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
@@ -2149,13 +2170,13 @@
         <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>39.1</v>
+        <v>1119</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
@@ -2169,13 +2190,13 @@
         <v>45</v>
       </c>
       <c r="D82" t="n">
-        <v>54.1</v>
+        <v>3468.9</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
@@ -2189,13 +2210,13 @@
         <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>37.8</v>
+        <v>6836.8</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
@@ -2209,13 +2230,13 @@
         <v>45</v>
       </c>
       <c r="D84" t="n">
-        <v>126.1</v>
+        <v>717.3</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
@@ -2229,13 +2250,13 @@
         <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>54.5</v>
+        <v>299.4</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86">
@@ -2249,13 +2270,13 @@
         <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>96.4</v>
+        <v>87917.8</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
@@ -2269,13 +2290,13 @@
         <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>4.5</v>
+        <v>8312.2</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
@@ -2289,13 +2310,13 @@
         <v>45</v>
       </c>
       <c r="D88" t="n">
-        <v>75.5</v>
+        <v>2606.4</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -2309,13 +2330,13 @@
         <v>45</v>
       </c>
       <c r="D89" t="n">
-        <v>173.1</v>
+        <v>2075.8</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
@@ -2329,13 +2350,13 @@
         <v>45</v>
       </c>
       <c r="D90" t="n">
-        <v>58.9</v>
+        <v>73.4</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
@@ -2349,13 +2370,13 @@
         <v>45</v>
       </c>
       <c r="D91" t="n">
-        <v>41.9</v>
+        <v>1029.1</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
@@ -2369,13 +2390,13 @@
         <v>45</v>
       </c>
       <c r="D92" t="n">
-        <v>5.6</v>
+        <v>388.6</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
@@ -2389,13 +2410,13 @@
         <v>45</v>
       </c>
       <c r="D93" t="n">
-        <v>48.9</v>
+        <v>129.4</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
@@ -2409,13 +2430,13 @@
         <v>45</v>
       </c>
       <c r="D94" t="n">
-        <v>27.2</v>
+        <v>6170.4</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -2429,13 +2450,13 @@
         <v>45</v>
       </c>
       <c r="D95" t="n">
-        <v>4.4</v>
+        <v>176.5</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
@@ -2449,13 +2470,13 @@
         <v>45</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>260.2</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
@@ -2469,13 +2490,13 @@
         <v>45</v>
       </c>
       <c r="D97" t="n">
-        <v>5.6</v>
+        <v>163.2</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -2486,13 +2507,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D98" t="n">
-        <v>226</v>
+        <v>33.15</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
         <v>49</v>
@@ -2506,13 +2527,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D99" t="n">
-        <v>1.2</v>
+        <v>0.38</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>49</v>
@@ -2526,13 +2547,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>10.04</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
         <v>49</v>
@@ -2546,13 +2567,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D101" t="n">
-        <v>5.7</v>
+        <v>27.15</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
         <v>49</v>
@@ -2566,13 +2587,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D102" t="n">
-        <v>1.6</v>
+        <v>54.49</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>49</v>
@@ -2586,13 +2607,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D103" t="n">
-        <v>7.4</v>
+        <v>96.37</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
         <v>49</v>
@@ -2606,13 +2627,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D104" t="n">
-        <v>13.2</v>
+        <v>58.89</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
         <v>49</v>
@@ -2626,13 +2647,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D105" t="n">
-        <v>4.1</v>
+        <v>4.5369</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
         <v>49</v>
@@ -2646,13 +2667,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D106" t="n">
-        <v>3.9</v>
+        <v>19.33</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
         <v>49</v>
@@ -2666,13 +2687,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8</v>
+        <v>54.08</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
         <v>49</v>
@@ -2686,13 +2707,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D108" t="n">
-        <v>7.5</v>
+        <v>17.28</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
         <v>49</v>
@@ -2706,13 +2727,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D109" t="n">
-        <v>2.9</v>
+        <v>37.82</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
         <v>49</v>
@@ -2726,13 +2747,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D110" t="n">
-        <v>20.7</v>
+        <v>126.05</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
         <v>49</v>
@@ -2746,13 +2767,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D111" t="n">
-        <v>2.3</v>
+        <v>17.02</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
         <v>49</v>
@@ -2766,13 +2787,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D112" t="n">
-        <v>13.3</v>
+        <v>8.93</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
         <v>49</v>
@@ -2786,13 +2807,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D113" t="n">
-        <v>52.4</v>
+        <v>28.8</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
         <v>49</v>
@@ -2806,13 +2827,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D114" t="n">
-        <v>21.8</v>
+        <v>14.63</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
         <v>49</v>
@@ -2826,13 +2847,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D115" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
         <v>49</v>
@@ -2846,13 +2867,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>2.04</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
         <v>49</v>
@@ -2866,13 +2887,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D117" t="n">
-        <v>13.8</v>
+        <v>4.35</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
         <v>49</v>
@@ -2886,13 +2907,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D118" t="n">
-        <v>13.5</v>
+        <v>1063.7869</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
         <v>49</v>
@@ -2906,13 +2927,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8</v>
+        <v>39.08</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
         <v>49</v>
@@ -2926,13 +2947,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2</v>
+        <v>8.61</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
         <v>49</v>
@@ -2946,13 +2967,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>2.6</v>
+        <v>48.89</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
         <v>49</v>
@@ -2966,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D122" t="n">
-        <v>2.3</v>
+        <v>0.04</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
         <v>49</v>
@@ -2986,13 +3007,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D123" t="n">
-        <v>3.4</v>
+        <v>173.11</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
         <v>49</v>
@@ -3006,11 +3027,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
-      </c>
-      <c r="D124"/>
+        <v>48</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.01</v>
+      </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
         <v>49</v>
@@ -3024,13 +3047,11 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D125"/>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
         <v>49</v>
@@ -3044,13 +3065,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>5.55</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
         <v>49</v>
@@ -3064,13 +3085,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1</v>
+        <v>41.9</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
         <v>49</v>
@@ -3084,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7</v>
+        <v>36.33</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
         <v>49</v>
@@ -3104,13 +3125,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D129" t="n">
-        <v>6.1</v>
+        <v>75.47</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F129" t="s">
         <v>49</v>
@@ -3127,10 +3148,10 @@
         <v>50</v>
       </c>
       <c r="D130" t="n">
-        <v>190.2</v>
+        <v>7600.5</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F130" t="s">
         <v>51</v>
@@ -3147,10 +3168,10 @@
         <v>50</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2</v>
+        <v>10.8</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F131" t="s">
         <v>51</v>
@@ -3167,10 +3188,10 @@
         <v>50</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6</v>
+        <v>1133.8</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
         <v>51</v>
@@ -3187,10 +3208,10 @@
         <v>50</v>
       </c>
       <c r="D133" t="n">
-        <v>14.7</v>
+        <v>2763.1</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F133" t="s">
         <v>51</v>
@@ -3207,10 +3228,10 @@
         <v>50</v>
       </c>
       <c r="D134" t="n">
-        <v>3.7</v>
+        <v>3969.2</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F134" t="s">
         <v>51</v>
@@ -3227,10 +3248,10 @@
         <v>50</v>
       </c>
       <c r="D135" t="n">
-        <v>3.3</v>
+        <v>4931.6</v>
       </c>
       <c r="E135" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F135" t="s">
         <v>51</v>
@@ -3247,10 +3268,10 @@
         <v>50</v>
       </c>
       <c r="D136" t="n">
-        <v>2.7</v>
+        <v>2267.9</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
         <v>51</v>
@@ -3267,10 +3288,10 @@
         <v>50</v>
       </c>
       <c r="D137" t="n">
-        <v>7.3</v>
+        <v>501</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F137" t="s">
         <v>51</v>
@@ -3287,10 +3308,10 @@
         <v>50</v>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>5473</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
         <v>51</v>
@@ -3307,10 +3328,10 @@
         <v>50</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3</v>
+        <v>9262.8</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
         <v>51</v>
@@ -3327,10 +3348,10 @@
         <v>50</v>
       </c>
       <c r="D140" t="n">
-        <v>17</v>
+        <v>14538.4</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
         <v>51</v>
@@ -3347,10 +3368,10 @@
         <v>50</v>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>5938.4</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
         <v>51</v>
@@ -3367,10 +3388,10 @@
         <v>50</v>
       </c>
       <c r="D142" t="n">
-        <v>19.6</v>
+        <v>6256</v>
       </c>
       <c r="E142" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
         <v>51</v>
@@ -3387,10 +3408,10 @@
         <v>50</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9</v>
+        <v>5027</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
         <v>51</v>
@@ -3407,10 +3428,10 @@
         <v>50</v>
       </c>
       <c r="D144" t="n">
-        <v>7.4</v>
+        <v>5939.6</v>
       </c>
       <c r="E144" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
         <v>51</v>
@@ -3427,10 +3448,10 @@
         <v>50</v>
       </c>
       <c r="D145" t="n">
-        <v>29.1</v>
+        <v>4043.8</v>
       </c>
       <c r="E145" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
         <v>51</v>
@@ -3447,10 +3468,10 @@
         <v>50</v>
       </c>
       <c r="D146" t="n">
-        <v>26.6</v>
+        <v>3809.1</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F146" t="s">
         <v>51</v>
@@ -3467,10 +3488,10 @@
         <v>50</v>
       </c>
       <c r="D147" t="n">
-        <v>9.6</v>
+        <v>6102.4</v>
       </c>
       <c r="E147" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
         <v>51</v>
@@ -3487,10 +3508,10 @@
         <v>50</v>
       </c>
       <c r="D148" t="n">
-        <v>12.5</v>
+        <v>908.2</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
         <v>51</v>
@@ -3507,10 +3528,10 @@
         <v>50</v>
       </c>
       <c r="D149" t="n">
-        <v>2.7</v>
+        <v>401.5</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
         <v>51</v>
@@ -3527,10 +3548,10 @@
         <v>50</v>
       </c>
       <c r="D150" t="n">
-        <v>3.3</v>
+        <v>121017.7</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
         <v>51</v>
@@ -3547,10 +3568,10 @@
         <v>50</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8</v>
+        <v>6140.1</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F151" t="s">
         <v>51</v>
@@ -3567,10 +3588,10 @@
         <v>50</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2715.5</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F152" t="s">
         <v>51</v>
@@ -3587,10 +3608,10 @@
         <v>50</v>
       </c>
       <c r="D153" t="n">
-        <v>3.5</v>
+        <v>2774.3</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F153" t="s">
         <v>51</v>
@@ -3607,10 +3628,10 @@
         <v>50</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3</v>
+        <v>295.7</v>
       </c>
       <c r="E154" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
         <v>51</v>
@@ -3627,10 +3648,10 @@
         <v>50</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8</v>
+        <v>5081</v>
       </c>
       <c r="E155" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F155" t="s">
         <v>51</v>
@@ -3647,10 +3668,10 @@
         <v>50</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4</v>
+        <v>324.5</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
         <v>51</v>
@@ -3667,10 +3688,10 @@
         <v>50</v>
       </c>
       <c r="D157" t="n">
-        <v>4.3</v>
+        <v>154.9</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F157" t="s">
         <v>51</v>
@@ -3687,10 +3708,10 @@
         <v>50</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>6262.8</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F158" t="s">
         <v>51</v>
@@ -3707,10 +3728,10 @@
         <v>50</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3</v>
+        <v>2815.8</v>
       </c>
       <c r="E159" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
         <v>51</v>
@@ -3727,10 +3748,10 @@
         <v>50</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9</v>
+        <v>1407.4</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F160" t="s">
         <v>51</v>
@@ -3747,10 +3768,10 @@
         <v>50</v>
       </c>
       <c r="D161" t="n">
-        <v>1.1</v>
+        <v>2167.3</v>
       </c>
       <c r="E161" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
         <v>51</v>
@@ -3767,13 +3788,13 @@
         <v>52</v>
       </c>
       <c r="D162" t="n">
-        <v>2241.3</v>
+        <v>20.73</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163">
@@ -3787,13 +3808,13 @@
         <v>52</v>
       </c>
       <c r="D163" t="n">
-        <v>3.1</v>
+        <v>1.16</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164">
@@ -3807,13 +3828,13 @@
         <v>52</v>
       </c>
       <c r="D164" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165">
@@ -3827,13 +3848,13 @@
         <v>52</v>
       </c>
       <c r="D165" t="n">
-        <v>164.8</v>
+        <v>1.96</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166">
@@ -3847,13 +3868,13 @@
         <v>52</v>
       </c>
       <c r="D166" t="n">
-        <v>15.2</v>
+        <v>13.8208</v>
       </c>
       <c r="E166" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167">
@@ -3867,13 +3888,13 @@
         <v>52</v>
       </c>
       <c r="D167" t="n">
-        <v>39.3</v>
+        <v>13.46</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168">
@@ -3887,13 +3908,13 @@
         <v>52</v>
       </c>
       <c r="D168" t="n">
-        <v>117.5</v>
+        <v>2.3</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
@@ -3907,13 +3928,13 @@
         <v>52</v>
       </c>
       <c r="D169" t="n">
-        <v>59.7</v>
+        <v>0.8231</v>
       </c>
       <c r="E169" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170">
@@ -3927,13 +3948,13 @@
         <v>52</v>
       </c>
       <c r="D170" t="n">
-        <v>48.1</v>
+        <v>5.74</v>
       </c>
       <c r="E170" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171">
@@ -3947,13 +3968,13 @@
         <v>52</v>
       </c>
       <c r="D171" t="n">
-        <v>1.4</v>
+        <v>21.83</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172">
@@ -3967,13 +3988,13 @@
         <v>52</v>
       </c>
       <c r="D172" t="n">
-        <v>67.6</v>
+        <v>3.9</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173">
@@ -3987,13 +4008,13 @@
         <v>52</v>
       </c>
       <c r="D173" t="n">
-        <v>82.4</v>
+        <v>12.23</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174">
@@ -4007,13 +4028,13 @@
         <v>52</v>
       </c>
       <c r="D174" t="n">
-        <v>180.7</v>
+        <v>4.96</v>
       </c>
       <c r="E174" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F174" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175">
@@ -4027,13 +4048,13 @@
         <v>52</v>
       </c>
       <c r="D175" t="n">
-        <v>19.7</v>
+        <v>4.07</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
@@ -4047,13 +4068,13 @@
         <v>52</v>
       </c>
       <c r="D176" t="n">
-        <v>45.3</v>
+        <v>7.52</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
@@ -4067,13 +4088,13 @@
         <v>52</v>
       </c>
       <c r="D177" t="n">
-        <v>291.6</v>
+        <v>13.28</v>
       </c>
       <c r="E177" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
@@ -4087,13 +4108,13 @@
         <v>52</v>
       </c>
       <c r="D178" t="n">
-        <v>219.7</v>
+        <v>13.16</v>
       </c>
       <c r="E178" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179">
@@ -4107,13 +4128,13 @@
         <v>52</v>
       </c>
       <c r="D179" t="n">
-        <v>111</v>
+        <v>7.4</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180">
@@ -4127,13 +4148,13 @@
         <v>52</v>
       </c>
       <c r="D180" t="n">
-        <v>232.8</v>
+        <v>0.7</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
@@ -4147,13 +4168,13 @@
         <v>52</v>
       </c>
       <c r="D181" t="n">
-        <v>81.6</v>
+        <v>0.12</v>
       </c>
       <c r="E181" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182">
@@ -4167,13 +4188,13 @@
         <v>52</v>
       </c>
       <c r="D182" t="n">
-        <v>92.7</v>
+        <v>226.0439</v>
       </c>
       <c r="E182" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183">
@@ -4187,13 +4208,13 @@
         <v>52</v>
       </c>
       <c r="D183" t="n">
-        <v>16.3</v>
+        <v>52.35</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F183" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
@@ -4207,13 +4228,13 @@
         <v>52</v>
       </c>
       <c r="D184" t="n">
-        <v>101.5</v>
+        <v>1.58</v>
       </c>
       <c r="E184" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185">
@@ -4227,13 +4248,13 @@
         <v>52</v>
       </c>
       <c r="D185" t="n">
-        <v>91.7</v>
+        <v>4.46</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186">
@@ -4247,13 +4268,13 @@
         <v>52</v>
       </c>
       <c r="D186" t="n">
-        <v>57.9</v>
+        <v>0.82</v>
       </c>
       <c r="E186" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187">
@@ -4267,13 +4288,13 @@
         <v>52</v>
       </c>
       <c r="D187" t="n">
-        <v>32.4</v>
+        <v>2.6</v>
       </c>
       <c r="E187" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
@@ -4287,13 +4308,13 @@
         <v>52</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189">
@@ -4306,14 +4327,12 @@
       <c r="C189" t="s">
         <v>52</v>
       </c>
-      <c r="D189" t="n">
-        <v>33.9</v>
-      </c>
+      <c r="D189"/>
       <c r="E189" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190">
@@ -4327,13 +4346,13 @@
         <v>52</v>
       </c>
       <c r="D190" t="n">
-        <v>13.1</v>
+        <v>6.07</v>
       </c>
       <c r="E190" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191">
@@ -4347,13 +4366,13 @@
         <v>52</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2</v>
+        <v>3.35</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192">
@@ -4367,13 +4386,13 @@
         <v>52</v>
       </c>
       <c r="D192" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="E192" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
@@ -4387,13 +4406,13 @@
         <v>52</v>
       </c>
       <c r="D193" t="n">
-        <v>7.5</v>
+        <v>0.18</v>
       </c>
       <c r="E193" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -4404,16 +4423,16 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D194" t="n">
-        <v>940.8</v>
+        <v>6582.9</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195">
@@ -4424,16 +4443,16 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2</v>
+        <v>72.7</v>
       </c>
       <c r="E195" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196">
@@ -4444,16 +4463,16 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D196" t="n">
-        <v>3.7</v>
+        <v>443</v>
       </c>
       <c r="E196" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197">
@@ -4464,16 +4483,16 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D197" t="n">
-        <v>88.5</v>
+        <v>1233.4</v>
       </c>
       <c r="E197" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198">
@@ -4484,16 +4503,16 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D198" t="n">
-        <v>2.6</v>
+        <v>1773.3</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199">
@@ -4504,16 +4523,16 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D199" t="n">
-        <v>21.9</v>
+        <v>2465.8</v>
       </c>
       <c r="E199" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200">
@@ -4524,16 +4543,16 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D200" t="n">
-        <v>22.6</v>
+        <v>375.1</v>
       </c>
       <c r="E200" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201">
@@ -4544,16 +4563,16 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D201" t="n">
-        <v>26.7</v>
+        <v>255</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -4564,16 +4583,16 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D202" t="n">
-        <v>25.1</v>
+        <v>5397.3</v>
       </c>
       <c r="E202" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203">
@@ -4584,14 +4603,16 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>54</v>
-      </c>
-      <c r="D203"/>
+        <v>55</v>
+      </c>
+      <c r="D203" t="n">
+        <v>10277.2</v>
+      </c>
       <c r="E203" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204">
@@ -4602,16 +4623,16 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D204" t="n">
-        <v>17.8</v>
+        <v>13291</v>
       </c>
       <c r="E204" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F204" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205">
@@ -4622,16 +4643,16 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D205" t="n">
-        <v>8.4</v>
+        <v>4196.4</v>
       </c>
       <c r="E205" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F205" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
@@ -4642,16 +4663,16 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D206" t="n">
-        <v>39.3</v>
+        <v>4416.9</v>
       </c>
       <c r="E206" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207">
@@ -4662,16 +4683,16 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D207" t="n">
-        <v>10.1</v>
+        <v>3891.3</v>
       </c>
       <c r="E207" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208">
@@ -4682,16 +4703,16 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D208" t="n">
-        <v>35.6</v>
+        <v>5199.9</v>
       </c>
       <c r="E208" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -4702,16 +4723,16 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D209" t="n">
-        <v>179.7</v>
+        <v>3550.2</v>
       </c>
       <c r="E209" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210">
@@ -4722,16 +4743,16 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D210" t="n">
-        <v>52.6</v>
+        <v>2261.3</v>
       </c>
       <c r="E210" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211">
@@ -4742,16 +4763,16 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D211" t="n">
-        <v>26</v>
+        <v>5113.9</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F211" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212">
@@ -4762,16 +4783,16 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D212" t="n">
-        <v>134.9</v>
+        <v>588.5</v>
       </c>
       <c r="E212" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213">
@@ -4782,16 +4803,16 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D213" t="n">
-        <v>45.2</v>
+        <v>232.9</v>
       </c>
       <c r="E213" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
@@ -4802,16 +4823,16 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D214" t="n">
-        <v>54.1</v>
+        <v>91722.4</v>
       </c>
       <c r="E214" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215">
@@ -4822,16 +4843,16 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D215" t="n">
-        <v>18.7</v>
+        <v>7807.4</v>
       </c>
       <c r="E215" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
@@ -4842,16 +4863,16 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D216" t="n">
-        <v>15.9</v>
+        <v>1828.7</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217">
@@ -4862,16 +4883,16 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D217" t="n">
-        <v>52.4</v>
+        <v>1832.8</v>
       </c>
       <c r="E217" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218">
@@ -4882,16 +4903,16 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D218" t="n">
-        <v>24.6</v>
+        <v>138.3</v>
       </c>
       <c r="E218" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219">
@@ -4902,16 +4923,16 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8</v>
+        <v>2322.3</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220">
@@ -4922,16 +4943,16 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D220" t="n">
-        <v>0.8</v>
+        <v>400.1</v>
       </c>
       <c r="E220" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221">
@@ -4942,16 +4963,16 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D221" t="n">
-        <v>6</v>
+        <v>110.2</v>
       </c>
       <c r="E221" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F221" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222">
@@ -4962,16 +4983,16 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D222" t="n">
-        <v>2.8</v>
+        <v>3784.1</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223">
@@ -4982,16 +5003,16 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1</v>
+        <v>534.9</v>
       </c>
       <c r="E223" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224">
@@ -5002,16 +5023,16 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5</v>
+        <v>870</v>
       </c>
       <c r="E224" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F224" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225">
@@ -5022,16 +5043,16 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D225" t="n">
-        <v>1.3</v>
+        <v>475.7</v>
       </c>
       <c r="E225" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F225" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226">
@@ -5042,16 +5063,16 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D226" t="n">
-        <v>1313.9</v>
+        <v>19.58</v>
       </c>
       <c r="E226" t="s">
         <v>9</v>
       </c>
       <c r="F226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="227">
@@ -5062,16 +5083,16 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D227" t="n">
-        <v>3.4</v>
+        <v>0.15</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228">
@@ -5082,16 +5103,16 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D228" t="n">
-        <v>6.4</v>
+        <v>0.91</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
       </c>
       <c r="F228" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229">
@@ -5102,16 +5123,16 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D229" t="n">
-        <v>152.9</v>
+        <v>0.96</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230">
@@ -5122,16 +5143,16 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D230" t="n">
-        <v>14.5</v>
+        <v>2.6796</v>
       </c>
       <c r="E230" t="s">
         <v>9</v>
       </c>
       <c r="F230" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231">
@@ -5142,16 +5163,16 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D231" t="n">
-        <v>18.5</v>
+        <v>3.29</v>
       </c>
       <c r="E231" t="s">
         <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
@@ -5162,16 +5183,16 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D232" t="n">
-        <v>78.4</v>
+        <v>0.25</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233">
@@ -5182,16 +5203,16 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D233" t="n">
-        <v>20.1</v>
+        <v>0.8212</v>
       </c>
       <c r="E233" t="s">
         <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="234">
@@ -5202,16 +5223,16 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D234" t="n">
-        <v>15</v>
+        <v>14.74</v>
       </c>
       <c r="E234" t="s">
         <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="235">
@@ -5222,16 +5243,16 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D235" t="n">
-        <v>1.4</v>
+        <v>26.55</v>
       </c>
       <c r="E235" t="s">
         <v>9</v>
       </c>
       <c r="F235" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
@@ -5242,16 +5263,16 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D236" t="n">
-        <v>43.2</v>
+        <v>12.98</v>
       </c>
       <c r="E236" t="s">
         <v>9</v>
       </c>
       <c r="F236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237">
@@ -5262,16 +5283,16 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D237" t="n">
-        <v>82.1</v>
+        <v>9.57</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
       </c>
       <c r="F237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="238">
@@ -5282,16 +5303,16 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D238" t="n">
-        <v>121.8</v>
+        <v>12.52</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239">
@@ -5302,16 +5323,16 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D239" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
       </c>
       <c r="F239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240">
@@ -5322,16 +5343,16 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D240" t="n">
-        <v>24.3</v>
+        <v>16.96</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
       </c>
       <c r="F240" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="241">
@@ -5342,16 +5363,16 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D241" t="n">
-        <v>125.6</v>
+        <v>7.37</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
       </c>
       <c r="F241" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="242">
@@ -5362,16 +5383,16 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D242" t="n">
-        <v>113.5</v>
+        <v>2.66</v>
       </c>
       <c r="E242" t="s">
         <v>9</v>
       </c>
       <c r="F242" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243">
@@ -5382,16 +5403,16 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D243" t="n">
-        <v>76</v>
+        <v>3.28</v>
       </c>
       <c r="E243" t="s">
         <v>9</v>
       </c>
       <c r="F243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244">
@@ -5402,16 +5423,16 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D244" t="n">
-        <v>114</v>
+        <v>0.87</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245">
@@ -5422,16 +5443,16 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D245" t="n">
-        <v>37.7</v>
+        <v>0.25</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246">
@@ -5442,16 +5463,16 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D246" t="n">
-        <v>31.7</v>
+        <v>190.2008</v>
       </c>
       <c r="E246" t="s">
         <v>9</v>
       </c>
       <c r="F246" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="247">
@@ -5462,16 +5483,16 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D247" t="n">
-        <v>6.1</v>
+        <v>29.11</v>
       </c>
       <c r="E247" t="s">
         <v>9</v>
       </c>
       <c r="F247" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248">
@@ -5482,16 +5503,16 @@
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D248" t="n">
-        <v>77.5</v>
+        <v>3.67</v>
       </c>
       <c r="E248" t="s">
         <v>9</v>
       </c>
       <c r="F248" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="249">
@@ -5502,16 +5523,16 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D249" t="n">
-        <v>40.2</v>
+        <v>4.27</v>
       </c>
       <c r="E249" t="s">
         <v>9</v>
       </c>
       <c r="F249" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250">
@@ -5522,16 +5543,16 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D250" t="n">
-        <v>29.7</v>
+        <v>0.27</v>
       </c>
       <c r="E250" t="s">
         <v>9</v>
       </c>
       <c r="F250" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251">
@@ -5542,16 +5563,16 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D251" t="n">
-        <v>15.1</v>
+        <v>3.47</v>
       </c>
       <c r="E251" t="s">
         <v>9</v>
       </c>
       <c r="F251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252">
@@ -5562,16 +5583,16 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="E252" t="s">
         <v>9</v>
       </c>
       <c r="F252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253">
@@ -5582,16 +5603,16 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D253" t="n">
-        <v>34.1</v>
+        <v>0.41</v>
       </c>
       <c r="E253" t="s">
         <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="254">
@@ -5602,16 +5623,16 @@
         <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D254" t="n">
-        <v>13.8</v>
+        <v>1.11</v>
       </c>
       <c r="E254" t="s">
         <v>9</v>
       </c>
       <c r="F254" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255">
@@ -5622,16 +5643,16 @@
         <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D255" t="n">
-        <v>0.2</v>
+        <v>0.81</v>
       </c>
       <c r="E255" t="s">
         <v>9</v>
       </c>
       <c r="F255" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256">
@@ -5642,16 +5663,16 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D256" t="n">
-        <v>2.7</v>
+        <v>1.81</v>
       </c>
       <c r="E256" t="s">
         <v>9</v>
       </c>
       <c r="F256" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="257">
@@ -5662,16 +5683,16 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D257" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
         <v>9</v>
       </c>
       <c r="F257" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="258">
@@ -5682,16 +5703,16 @@
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D258" t="n">
-        <v>1671.6</v>
+        <v>180.74</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
       </c>
       <c r="F258" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -5702,16 +5723,16 @@
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="E259" t="s">
         <v>9</v>
       </c>
       <c r="F259" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260">
@@ -5722,16 +5743,16 @@
         <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D260" t="n">
-        <v>0.2</v>
+        <v>19.67</v>
       </c>
       <c r="E260" t="s">
         <v>9</v>
       </c>
       <c r="F260" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261">
@@ -5742,16 +5763,16 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D261" t="n">
-        <v>131.8</v>
+        <v>13.11</v>
       </c>
       <c r="E261" t="s">
         <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262">
@@ -5762,16 +5783,16 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D262" t="n">
-        <v>35.4</v>
+        <v>81.646</v>
       </c>
       <c r="E262" t="s">
         <v>9</v>
       </c>
       <c r="F262" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263">
@@ -5782,16 +5803,16 @@
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D263" t="n">
-        <v>36.7</v>
+        <v>92.65</v>
       </c>
       <c r="E263" t="s">
         <v>9</v>
       </c>
       <c r="F263" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264">
@@ -5802,16 +5823,16 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D264" t="n">
-        <v>32.8</v>
+        <v>57.92</v>
       </c>
       <c r="E264" t="s">
         <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265">
@@ -5822,16 +5843,16 @@
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D265" t="n">
-        <v>63</v>
+        <v>16.2918</v>
       </c>
       <c r="E265" t="s">
         <v>9</v>
       </c>
       <c r="F265" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266">
@@ -5842,16 +5863,16 @@
         <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D266" t="n">
-        <v>57</v>
+        <v>164.83</v>
       </c>
       <c r="E266" t="s">
         <v>9</v>
       </c>
       <c r="F266" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267">
@@ -5862,16 +5883,16 @@
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D267" t="n">
-        <v>0.3</v>
+        <v>219.68</v>
       </c>
       <c r="E267" t="s">
         <v>9</v>
       </c>
       <c r="F267" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -5882,16 +5903,16 @@
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D268" t="n">
-        <v>76.1</v>
+        <v>48.09</v>
       </c>
       <c r="E268" t="s">
         <v>9</v>
       </c>
       <c r="F268" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269">
@@ -5902,16 +5923,16 @@
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D269" t="n">
-        <v>11.7</v>
+        <v>110.97</v>
       </c>
       <c r="E269" t="s">
         <v>9</v>
       </c>
       <c r="F269" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270">
@@ -5922,16 +5943,16 @@
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D270" t="n">
-        <v>209.5</v>
+        <v>232.79</v>
       </c>
       <c r="E270" t="s">
         <v>9</v>
       </c>
       <c r="F270" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271">
@@ -5942,16 +5963,16 @@
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D271" t="n">
-        <v>9.8</v>
+        <v>59.72</v>
       </c>
       <c r="E271" t="s">
         <v>9</v>
       </c>
       <c r="F271" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272">
@@ -5962,16 +5983,16 @@
         <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D272" t="n">
-        <v>35.2</v>
+        <v>67.61</v>
       </c>
       <c r="E272" t="s">
         <v>9</v>
       </c>
       <c r="F272" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273">
@@ -5982,16 +6003,16 @@
         <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D273" t="n">
-        <v>189.2</v>
+        <v>45.28</v>
       </c>
       <c r="E273" t="s">
         <v>9</v>
       </c>
       <c r="F273" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274">
@@ -6002,16 +6023,16 @@
         <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D274" t="n">
-        <v>329.5</v>
+        <v>117.47</v>
       </c>
       <c r="E274" t="s">
         <v>9</v>
       </c>
       <c r="F274" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275">
@@ -6022,16 +6043,16 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D275" t="n">
-        <v>114.7</v>
+        <v>39.3</v>
       </c>
       <c r="E275" t="s">
         <v>9</v>
       </c>
       <c r="F275" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276">
@@ -6042,16 +6063,16 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D276" t="n">
-        <v>25.5</v>
+        <v>3.59</v>
       </c>
       <c r="E276" t="s">
         <v>9</v>
       </c>
       <c r="F276" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="277">
@@ -6062,16 +6083,16 @@
         <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D277" t="n">
-        <v>32.8</v>
+        <v>0.21</v>
       </c>
       <c r="E277" t="s">
         <v>9</v>
       </c>
       <c r="F277" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278">
@@ -6082,16 +6103,16 @@
         <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D278" t="n">
-        <v>50.7</v>
+        <v>2241.2878</v>
       </c>
       <c r="E278" t="s">
         <v>9</v>
       </c>
       <c r="F278" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279">
@@ -6102,16 +6123,16 @@
         <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D279" t="n">
-        <v>5.6</v>
+        <v>291.58</v>
       </c>
       <c r="E279" t="s">
         <v>9</v>
       </c>
       <c r="F279" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280">
@@ -6122,16 +6143,16 @@
         <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D280" t="n">
-        <v>0.9</v>
+        <v>15.18</v>
       </c>
       <c r="E280" t="s">
         <v>9</v>
       </c>
       <c r="F280" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281">
@@ -6142,16 +6163,16 @@
         <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D281" t="n">
-        <v>10.1</v>
+        <v>33.9</v>
       </c>
       <c r="E281" t="s">
         <v>9</v>
       </c>
       <c r="F281" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282">
@@ -6162,16 +6183,16 @@
         <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D282" t="n">
-        <v>10.3</v>
+        <v>1.36</v>
       </c>
       <c r="E282" t="s">
         <v>9</v>
       </c>
       <c r="F282" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283">
@@ -6182,16 +6203,16 @@
         <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D283" t="n">
-        <v>37.4</v>
+        <v>91.68</v>
       </c>
       <c r="E283" t="s">
         <v>9</v>
       </c>
       <c r="F283" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284">
@@ -6202,16 +6223,16 @@
         <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D284" t="n">
-        <v>13.4</v>
+        <v>8.58</v>
       </c>
       <c r="E284" t="s">
         <v>9</v>
       </c>
       <c r="F284" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="285">
@@ -6222,16 +6243,16 @@
         <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D285" t="n">
-        <v>21.7</v>
+        <v>0.56</v>
       </c>
       <c r="E285" t="s">
         <v>9</v>
       </c>
       <c r="F285" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286">
@@ -6242,16 +6263,16 @@
         <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D286" t="n">
-        <v>62.9</v>
+        <v>7.51</v>
       </c>
       <c r="E286" t="s">
         <v>9</v>
       </c>
       <c r="F286" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287">
@@ -6262,16 +6283,16 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D287" t="n">
-        <v>25.8</v>
+        <v>32.38</v>
       </c>
       <c r="E287" t="s">
         <v>9</v>
       </c>
       <c r="F287" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288">
@@ -6282,16 +6303,16 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D288" t="n">
-        <v>15.6</v>
+        <v>82.43</v>
       </c>
       <c r="E288" t="s">
         <v>9</v>
       </c>
       <c r="F288" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289">
@@ -6302,16 +6323,16 @@
         <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D289" t="n">
-        <v>26.1</v>
+        <v>101.46</v>
       </c>
       <c r="E289" t="s">
         <v>9</v>
       </c>
       <c r="F289" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290">
@@ -6322,16 +6343,16 @@
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D290" t="n">
-        <v>2994</v>
+        <v>39.34</v>
       </c>
       <c r="E290" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F290" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291">
@@ -6342,16 +6363,16 @@
         <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D291" t="n">
         <v>0.2</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F291" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="292">
@@ -6362,16 +6383,16 @@
         <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D292" t="n">
-        <v>1.5</v>
+        <v>10.1</v>
       </c>
       <c r="E292" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F292" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="293">
@@ -6382,16 +6403,16 @@
         <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D293" t="n">
-        <v>173.4</v>
+        <v>2.77</v>
       </c>
       <c r="E293" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="294">
@@ -6402,16 +6423,16 @@
         <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D294" t="n">
-        <v>51.4</v>
+        <v>45.2071</v>
       </c>
       <c r="E294" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="295">
@@ -6422,16 +6443,16 @@
         <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D295" t="n">
-        <v>84.6</v>
+        <v>54.13</v>
       </c>
       <c r="E295" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F295" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="296">
@@ -6442,16 +6463,16 @@
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D296" t="n">
-        <v>48.4</v>
+        <v>24.55</v>
       </c>
       <c r="E296" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297">
@@ -6462,16 +6483,16 @@
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D297" t="n">
-        <v>188.7</v>
+        <v>18.7156</v>
       </c>
       <c r="E297" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F297" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298">
@@ -6482,16 +6503,16 @@
         <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D298" t="n">
-        <v>111.1</v>
+        <v>88.47</v>
       </c>
       <c r="E298" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="299">
@@ -6502,16 +6523,16 @@
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D299" t="n">
-        <v>0.2</v>
+        <v>52.62</v>
       </c>
       <c r="E299" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300">
@@ -6522,16 +6543,16 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D300" t="n">
-        <v>131.9</v>
+        <v>25.07</v>
       </c>
       <c r="E300" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F300" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301">
@@ -6542,16 +6563,16 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D301" t="n">
-        <v>13.4</v>
+        <v>25.96</v>
       </c>
       <c r="E301" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F301" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="302">
@@ -6562,16 +6583,16 @@
         <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D302" t="n">
-        <v>490.8</v>
+        <v>134.92</v>
       </c>
       <c r="E302" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F302" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303">
@@ -6582,16 +6603,16 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D303" t="n">
-        <v>13.7</v>
+        <v>26.68</v>
       </c>
       <c r="E303" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F303" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="304">
@@ -6602,16 +6623,16 @@
         <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D304" t="n">
-        <v>34.1</v>
+        <v>17.84</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="305">
@@ -6622,16 +6643,16 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D305" t="n">
-        <v>324.5</v>
+        <v>35.64</v>
       </c>
       <c r="E305" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F305" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306">
@@ -6642,16 +6663,16 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D306" t="n">
-        <v>641.5</v>
+        <v>22.64</v>
       </c>
       <c r="E306" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F306" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="307">
@@ -6662,16 +6683,16 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D307" t="n">
-        <v>223.4</v>
+        <v>21.9</v>
       </c>
       <c r="E307" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F307" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308">
@@ -6682,16 +6703,16 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D308" t="n">
-        <v>12.4</v>
+        <v>0.48</v>
       </c>
       <c r="E308" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="309">
@@ -6702,16 +6723,16 @@
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D309" t="n">
-        <v>37.2</v>
+        <v>0.05</v>
       </c>
       <c r="E309" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="310">
@@ -6722,16 +6743,16 @@
         <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D310" t="n">
-        <v>71.2</v>
+        <v>940.7727</v>
       </c>
       <c r="E310" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F310" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="311">
@@ -6742,16 +6763,16 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D311" t="n">
-        <v>6.3</v>
+        <v>179.65</v>
       </c>
       <c r="E311" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F311" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="312">
@@ -6762,16 +6783,16 @@
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D312" t="n">
-        <v>0.4</v>
+        <v>2.56</v>
       </c>
       <c r="E312" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F312" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313">
@@ -6782,16 +6803,16 @@
         <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D313" t="n">
-        <v>10.8</v>
+        <v>5.99</v>
       </c>
       <c r="E313" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F313" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="314">
@@ -6802,16 +6823,14 @@
         <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>60</v>
-      </c>
-      <c r="D314" t="n">
-        <v>2.9</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D314"/>
       <c r="E314" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F314" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="315">
@@ -6822,16 +6841,16 @@
         <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D315" t="n">
-        <v>36</v>
+        <v>52.44</v>
       </c>
       <c r="E315" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F315" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="316">
@@ -6842,16 +6861,16 @@
         <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D316" t="n">
-        <v>8.2</v>
+        <v>3.72</v>
       </c>
       <c r="E316" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F316" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="317">
@@ -6862,16 +6881,16 @@
         <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D317" t="n">
-        <v>30.6</v>
+        <v>0.77</v>
       </c>
       <c r="E317" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F317" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="318">
@@ -6882,16 +6901,16 @@
         <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D318" t="n">
-        <v>137</v>
+        <v>1.27</v>
       </c>
       <c r="E318" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F318" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="319">
@@ -6902,16 +6921,16 @@
         <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D319" t="n">
-        <v>27.3</v>
+        <v>22.84</v>
       </c>
       <c r="E319" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F319" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="320">
@@ -6922,16 +6941,16 @@
         <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D320" t="n">
-        <v>23.2</v>
+        <v>8.37</v>
       </c>
       <c r="E320" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F320" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="321">
@@ -6942,16 +6961,16 @@
         <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D321" t="n">
-        <v>57.9</v>
+        <v>15.88</v>
       </c>
       <c r="E321" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F321" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="322">
@@ -6962,13 +6981,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D322" t="n">
-        <v>97245.6</v>
+        <v>121.77</v>
       </c>
       <c r="E322" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F322" t="s">
         <v>64</v>
@@ -6982,13 +7001,13 @@
         <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D323" t="n">
-        <v>144.5</v>
+        <v>3.4</v>
       </c>
       <c r="E323" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F323" t="s">
         <v>64</v>
@@ -7002,13 +7021,13 @@
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D324" t="n">
-        <v>470</v>
+        <v>7.24</v>
       </c>
       <c r="E324" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F324" t="s">
         <v>64</v>
@@ -7022,13 +7041,13 @@
         <v>7</v>
       </c>
       <c r="C325" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D325" t="n">
-        <v>7402</v>
+        <v>13.75</v>
       </c>
       <c r="E325" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F325" t="s">
         <v>64</v>
@@ -7042,13 +7061,13 @@
         <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D326" t="n">
-        <v>1744.3</v>
+        <v>37.7399</v>
       </c>
       <c r="E326" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F326" t="s">
         <v>64</v>
@@ -7062,13 +7081,13 @@
         <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D327" t="n">
-        <v>3331.1</v>
+        <v>31.72</v>
       </c>
       <c r="E327" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F327" t="s">
         <v>64</v>
@@ -7082,13 +7101,13 @@
         <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D328" t="n">
-        <v>2168.5</v>
+        <v>29.72</v>
       </c>
       <c r="E328" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F328" t="s">
         <v>64</v>
@@ -7102,13 +7121,13 @@
         <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D329" t="n">
-        <v>3105.3</v>
+        <v>6.1128</v>
       </c>
       <c r="E329" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F329" t="s">
         <v>64</v>
@@ -7122,13 +7141,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D330" t="n">
-        <v>5634.3</v>
+        <v>152.91</v>
       </c>
       <c r="E330" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F330" t="s">
         <v>64</v>
@@ -7142,13 +7161,13 @@
         <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D331" t="n">
-        <v>122.3</v>
+        <v>113.52</v>
       </c>
       <c r="E331" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F331" t="s">
         <v>64</v>
@@ -7162,13 +7181,13 @@
         <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D332" t="n">
-        <v>4906.6</v>
+        <v>14.96</v>
       </c>
       <c r="E332" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F332" t="s">
         <v>64</v>
@@ -7182,13 +7201,13 @@
         <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D333" t="n">
-        <v>2136.7</v>
+        <v>75.95</v>
       </c>
       <c r="E333" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F333" t="s">
         <v>64</v>
@@ -7202,13 +7221,13 @@
         <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D334" t="n">
-        <v>6867.5</v>
+        <v>113.99</v>
       </c>
       <c r="E334" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F334" t="s">
         <v>64</v>
@@ -7222,13 +7241,13 @@
         <v>7</v>
       </c>
       <c r="C335" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D335" t="n">
-        <v>1269.1</v>
+        <v>20.08</v>
       </c>
       <c r="E335" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F335" t="s">
         <v>64</v>
@@ -7242,13 +7261,13 @@
         <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D336" t="n">
-        <v>2201.6</v>
+        <v>43.21</v>
       </c>
       <c r="E336" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F336" t="s">
         <v>64</v>
@@ -7262,13 +7281,13 @@
         <v>7</v>
       </c>
       <c r="C337" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D337" t="n">
-        <v>9797.6</v>
+        <v>24.29</v>
       </c>
       <c r="E337" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F337" t="s">
         <v>64</v>
@@ -7282,13 +7301,13 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D338" t="n">
-        <v>9855</v>
+        <v>78.4</v>
       </c>
       <c r="E338" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F338" t="s">
         <v>64</v>
@@ -7302,13 +7321,13 @@
         <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D339" t="n">
-        <v>4187.8</v>
+        <v>18.48</v>
       </c>
       <c r="E339" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F339" t="s">
         <v>64</v>
@@ -7322,13 +7341,13 @@
         <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D340" t="n">
-        <v>6097.5</v>
+        <v>2.66</v>
       </c>
       <c r="E340" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F340" t="s">
         <v>64</v>
@@ -7342,13 +7361,13 @@
         <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D341" t="n">
-        <v>2390.5</v>
+        <v>0.24</v>
       </c>
       <c r="E341" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F341" t="s">
         <v>64</v>
@@ -7362,13 +7381,13 @@
         <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D342" t="n">
-        <v>3527.3</v>
+        <v>1313.8827</v>
       </c>
       <c r="E342" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F342" t="s">
         <v>64</v>
@@ -7382,13 +7401,13 @@
         <v>7</v>
       </c>
       <c r="C343" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D343" t="n">
-        <v>516.6</v>
+        <v>125.55</v>
       </c>
       <c r="E343" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F343" t="s">
         <v>64</v>
@@ -7402,13 +7421,13 @@
         <v>7</v>
       </c>
       <c r="C344" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D344" t="n">
-        <v>1318.7</v>
+        <v>14.49</v>
       </c>
       <c r="E344" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F344" t="s">
         <v>64</v>
@@ -7422,13 +7441,13 @@
         <v>7</v>
       </c>
       <c r="C345" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D345" t="n">
-        <v>4267.3</v>
+        <v>34.12</v>
       </c>
       <c r="E345" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F345" t="s">
         <v>64</v>
@@ -7442,13 +7461,13 @@
         <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D346" t="n">
-        <v>2041.1</v>
+        <v>1.36</v>
       </c>
       <c r="E346" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F346" t="s">
         <v>64</v>
@@ -7462,13 +7481,13 @@
         <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D347" t="n">
-        <v>3440.6</v>
+        <v>40.2</v>
       </c>
       <c r="E347" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F347" t="s">
         <v>64</v>
@@ -7482,13 +7501,13 @@
         <v>7</v>
       </c>
       <c r="C348" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D348" t="n">
-        <v>635.1</v>
+        <v>6.35</v>
       </c>
       <c r="E348" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F348" t="s">
         <v>64</v>
@@ -7502,13 +7521,13 @@
         <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D349" t="n">
-        <v>2171.9</v>
+        <v>0.11</v>
       </c>
       <c r="E349" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F349" t="s">
         <v>64</v>
@@ -7522,13 +7541,13 @@
         <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D350" t="n">
-        <v>1903.9</v>
+        <v>6.88</v>
       </c>
       <c r="E350" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F350" t="s">
         <v>64</v>
@@ -7542,13 +7561,13 @@
         <v>7</v>
       </c>
       <c r="C351" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D351" t="n">
-        <v>458.6</v>
+        <v>15.07</v>
       </c>
       <c r="E351" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F351" t="s">
         <v>64</v>
@@ -7562,13 +7581,13 @@
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D352" t="n">
-        <v>580.5</v>
+        <v>82.14</v>
       </c>
       <c r="E352" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F352" t="s">
         <v>64</v>
@@ -7582,16 +7601,1936 @@
         <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D353" t="n">
-        <v>2552.2</v>
+        <v>77.47</v>
       </c>
       <c r="E353" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F353" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>65</v>
+      </c>
+      <c r="D354" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>65</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>65</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>65</v>
+      </c>
+      <c r="D357" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="E357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>65</v>
+      </c>
+      <c r="D358" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>65</v>
+      </c>
+      <c r="D359" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>65</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>65</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>65</v>
+      </c>
+      <c r="D362" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>65</v>
+      </c>
+      <c r="D363" t="n">
+        <v>100.74</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>20</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>65</v>
+      </c>
+      <c r="D364" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="E364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F364" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>21</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>65</v>
+      </c>
+      <c r="D365" t="n">
+        <v>39.54</v>
+      </c>
+      <c r="E365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>65</v>
+      </c>
+      <c r="D366" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>65</v>
+      </c>
+      <c r="D367" t="n">
+        <v>89.97</v>
+      </c>
+      <c r="E367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F367" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>65</v>
+      </c>
+      <c r="D368" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="E368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F368" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>25</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>65</v>
+      </c>
+      <c r="D369" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>26</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>65</v>
+      </c>
+      <c r="D370" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="E370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>27</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>65</v>
+      </c>
+      <c r="D371" t="n">
+        <v>124.16</v>
+      </c>
+      <c r="E371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F371" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>65</v>
+      </c>
+      <c r="D372" t="n">
+        <v>9.46</v>
+      </c>
+      <c r="E372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F372" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>65</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F373" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>30</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>65</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1028.11</v>
+      </c>
+      <c r="E374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>31</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>65</v>
+      </c>
+      <c r="D375" t="n">
+        <v>107.94</v>
+      </c>
+      <c r="E375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>32</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>65</v>
+      </c>
+      <c r="D376" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="E376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>33</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>65</v>
+      </c>
+      <c r="D377" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>34</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>65</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>65</v>
+      </c>
+      <c r="D379" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F379" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>36</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>65</v>
+      </c>
+      <c r="D380" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>37</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>65</v>
+      </c>
+      <c r="D381" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>38</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>65</v>
+      </c>
+      <c r="D382" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F382" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>39</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>65</v>
+      </c>
+      <c r="D383" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F383" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>40</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>65</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F384" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>41</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>65</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>67</v>
+      </c>
+      <c r="D386" t="n">
+        <v>490.76</v>
+      </c>
+      <c r="E386" t="s">
+        <v>43</v>
+      </c>
+      <c r="F386" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>67</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E387" t="s">
+        <v>43</v>
+      </c>
+      <c r="F387" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E388" t="s">
+        <v>43</v>
+      </c>
+      <c r="F388" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>67</v>
+      </c>
+      <c r="D389" t="n">
+        <v>136.96</v>
+      </c>
+      <c r="E389" t="s">
+        <v>43</v>
+      </c>
+      <c r="F389" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>67</v>
+      </c>
+      <c r="D390" t="n">
+        <v>37.19</v>
+      </c>
+      <c r="E390" t="s">
+        <v>43</v>
+      </c>
+      <c r="F390" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>67</v>
+      </c>
+      <c r="D391" t="n">
+        <v>71.22</v>
+      </c>
+      <c r="E391" t="s">
+        <v>43</v>
+      </c>
+      <c r="F391" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>16</v>
+      </c>
+      <c r="B392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s">
+        <v>67</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E392" t="s">
+        <v>43</v>
+      </c>
+      <c r="F392" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C393" t="s">
+        <v>67</v>
+      </c>
+      <c r="D393" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="E393" t="s">
+        <v>43</v>
+      </c>
+      <c r="F393" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" t="s">
+        <v>7</v>
+      </c>
+      <c r="C394" t="s">
+        <v>67</v>
+      </c>
+      <c r="D394" t="n">
+        <v>173.39</v>
+      </c>
+      <c r="E394" t="s">
+        <v>43</v>
+      </c>
+      <c r="F394" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>19</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395" t="s">
+        <v>67</v>
+      </c>
+      <c r="D395" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>43</v>
+      </c>
+      <c r="F395" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>20</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" t="s">
+        <v>67</v>
+      </c>
+      <c r="D396" t="n">
+        <v>111.14</v>
+      </c>
+      <c r="E396" t="s">
+        <v>43</v>
+      </c>
+      <c r="F396" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>21</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s">
+        <v>67</v>
+      </c>
+      <c r="D397" t="n">
+        <v>223.41</v>
+      </c>
+      <c r="E397" t="s">
+        <v>43</v>
+      </c>
+      <c r="F397" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>22</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>67</v>
+      </c>
+      <c r="D398" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="E398" t="s">
+        <v>43</v>
+      </c>
+      <c r="F398" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>23</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>67</v>
+      </c>
+      <c r="D399" t="n">
+        <v>188.72</v>
+      </c>
+      <c r="E399" t="s">
+        <v>43</v>
+      </c>
+      <c r="F399" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>24</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" t="s">
+        <v>67</v>
+      </c>
+      <c r="D400" t="n">
+        <v>131.86</v>
+      </c>
+      <c r="E400" t="s">
+        <v>43</v>
+      </c>
+      <c r="F400" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>25</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>67</v>
+      </c>
+      <c r="D401" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="E401" t="s">
+        <v>43</v>
+      </c>
+      <c r="F401" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>26</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>67</v>
+      </c>
+      <c r="D402" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="E402" t="s">
+        <v>43</v>
+      </c>
+      <c r="F402" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>27</v>
+      </c>
+      <c r="B403" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403" t="s">
+        <v>67</v>
+      </c>
+      <c r="D403" t="n">
+        <v>84.64</v>
+      </c>
+      <c r="E403" t="s">
+        <v>43</v>
+      </c>
+      <c r="F403" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>28</v>
+      </c>
+      <c r="B404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C404" t="s">
+        <v>67</v>
+      </c>
+      <c r="D404" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E404" t="s">
+        <v>43</v>
+      </c>
+      <c r="F404" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>29</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405" t="s">
+        <v>67</v>
+      </c>
+      <c r="D405" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="E405" t="s">
+        <v>43</v>
+      </c>
+      <c r="F405" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>30</v>
+      </c>
+      <c r="B406" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" t="s">
+        <v>67</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2994.03</v>
+      </c>
+      <c r="E406" t="s">
+        <v>43</v>
+      </c>
+      <c r="F406" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s">
+        <v>67</v>
+      </c>
+      <c r="D407" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E407" t="s">
+        <v>43</v>
+      </c>
+      <c r="F407" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>32</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>67</v>
+      </c>
+      <c r="D408" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E408" t="s">
+        <v>43</v>
+      </c>
+      <c r="F408" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>67</v>
+      </c>
+      <c r="D409" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E409" t="s">
+        <v>43</v>
+      </c>
+      <c r="F409" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>34</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>67</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E410" t="s">
+        <v>43</v>
+      </c>
+      <c r="F410" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>35</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>67</v>
+      </c>
+      <c r="D411" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="E411" t="s">
+        <v>43</v>
+      </c>
+      <c r="F411" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>36</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>67</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E412" t="s">
+        <v>43</v>
+      </c>
+      <c r="F412" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>37</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="E413" t="s">
+        <v>43</v>
+      </c>
+      <c r="F413" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>38</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>67</v>
+      </c>
+      <c r="D414" t="n">
+        <v>57.87</v>
+      </c>
+      <c r="E414" t="s">
+        <v>43</v>
+      </c>
+      <c r="F414" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>39</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>67</v>
+      </c>
+      <c r="D415" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="E415" t="s">
+        <v>43</v>
+      </c>
+      <c r="F415" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>40</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>67</v>
+      </c>
+      <c r="D416" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="E416" t="s">
+        <v>43</v>
+      </c>
+      <c r="F416" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>41</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>67</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E417" t="s">
+        <v>43</v>
+      </c>
+      <c r="F417" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>69</v>
+      </c>
+      <c r="D418" t="n">
+        <v>6867.5</v>
+      </c>
+      <c r="E418" t="s">
+        <v>70</v>
+      </c>
+      <c r="F418" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>69</v>
+      </c>
+      <c r="D419" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="E419" t="s">
+        <v>70</v>
+      </c>
+      <c r="F419" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>69</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1269.1</v>
+      </c>
+      <c r="E420" t="s">
+        <v>70</v>
+      </c>
+      <c r="F420" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>69</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1903.9</v>
+      </c>
+      <c r="E421" t="s">
+        <v>70</v>
+      </c>
+      <c r="F421" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>14</v>
+      </c>
+      <c r="B422" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422" t="s">
+        <v>69</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2390.5</v>
+      </c>
+      <c r="E422" t="s">
+        <v>70</v>
+      </c>
+      <c r="F422" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>15</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423" t="s">
+        <v>69</v>
+      </c>
+      <c r="D423" t="n">
+        <v>3527.3</v>
+      </c>
+      <c r="E423" t="s">
+        <v>70</v>
+      </c>
+      <c r="F423" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>16</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" t="s">
+        <v>69</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2041.1</v>
+      </c>
+      <c r="E424" t="s">
+        <v>70</v>
+      </c>
+      <c r="F424" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" t="s">
+        <v>69</v>
+      </c>
+      <c r="D425" t="n">
+        <v>516.6</v>
+      </c>
+      <c r="E425" t="s">
+        <v>70</v>
+      </c>
+      <c r="F425" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" t="s">
+        <v>69</v>
+      </c>
+      <c r="D426" t="n">
+        <v>7402</v>
+      </c>
+      <c r="E426" t="s">
+        <v>70</v>
+      </c>
+      <c r="F426" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>19</v>
+      </c>
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>69</v>
+      </c>
+      <c r="D427" t="n">
+        <v>9855</v>
+      </c>
+      <c r="E427" t="s">
+        <v>70</v>
+      </c>
+      <c r="F427" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>20</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428" t="s">
+        <v>69</v>
+      </c>
+      <c r="D428" t="n">
+        <v>5634.3</v>
+      </c>
+      <c r="E428" t="s">
+        <v>70</v>
+      </c>
+      <c r="F428" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>21</v>
+      </c>
+      <c r="B429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>69</v>
+      </c>
+      <c r="D429" t="n">
+        <v>4187.8</v>
+      </c>
+      <c r="E429" t="s">
+        <v>70</v>
+      </c>
+      <c r="F429" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>22</v>
+      </c>
+      <c r="B430" t="s">
+        <v>7</v>
+      </c>
+      <c r="C430" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" t="n">
+        <v>6097.5</v>
+      </c>
+      <c r="E430" t="s">
+        <v>70</v>
+      </c>
+      <c r="F430" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" t="s">
+        <v>7</v>
+      </c>
+      <c r="C431" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" t="n">
+        <v>3105.3</v>
+      </c>
+      <c r="E431" t="s">
+        <v>70</v>
+      </c>
+      <c r="F431" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>24</v>
+      </c>
+      <c r="B432" t="s">
+        <v>7</v>
+      </c>
+      <c r="C432" t="s">
+        <v>69</v>
+      </c>
+      <c r="D432" t="n">
+        <v>4906.6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>70</v>
+      </c>
+      <c r="F432" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>25</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s">
+        <v>69</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2201.6</v>
+      </c>
+      <c r="E433" t="s">
+        <v>70</v>
+      </c>
+      <c r="F433" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>26</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>69</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2168.5</v>
+      </c>
+      <c r="E434" t="s">
+        <v>70</v>
+      </c>
+      <c r="F434" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>27</v>
+      </c>
+      <c r="B435" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>69</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3331.1</v>
+      </c>
+      <c r="E435" t="s">
+        <v>70</v>
+      </c>
+      <c r="F435" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>28</v>
+      </c>
+      <c r="B436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C436" t="s">
+        <v>69</v>
+      </c>
+      <c r="D436" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="E436" t="s">
+        <v>70</v>
+      </c>
+      <c r="F436" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>29</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" t="s">
+        <v>69</v>
+      </c>
+      <c r="D437" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="E437" t="s">
+        <v>70</v>
+      </c>
+      <c r="F437" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>30</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>69</v>
+      </c>
+      <c r="D438" t="n">
+        <v>97245.6</v>
+      </c>
+      <c r="E438" t="s">
+        <v>70</v>
+      </c>
+      <c r="F438" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>31</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>69</v>
+      </c>
+      <c r="D439" t="n">
+        <v>9797.6</v>
+      </c>
+      <c r="E439" t="s">
+        <v>70</v>
+      </c>
+      <c r="F439" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>32</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="s">
+        <v>69</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1744.3</v>
+      </c>
+      <c r="E440" t="s">
+        <v>70</v>
+      </c>
+      <c r="F440" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>33</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441" t="s">
+        <v>69</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2171.9</v>
+      </c>
+      <c r="E441" t="s">
+        <v>70</v>
+      </c>
+      <c r="F441" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>34</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>69</v>
+      </c>
+      <c r="D442" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="E442" t="s">
+        <v>70</v>
+      </c>
+      <c r="F442" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>35</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" t="n">
+        <v>4267.3</v>
+      </c>
+      <c r="E443" t="s">
+        <v>70</v>
+      </c>
+      <c r="F443" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>36</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>69</v>
+      </c>
+      <c r="D444" t="n">
+        <v>470</v>
+      </c>
+      <c r="E444" t="s">
+        <v>70</v>
+      </c>
+      <c r="F444" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>37</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>69</v>
+      </c>
+      <c r="D445" t="n">
+        <v>635.1</v>
+      </c>
+      <c r="E445" t="s">
+        <v>70</v>
+      </c>
+      <c r="F445" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>38</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>69</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2552.2</v>
+      </c>
+      <c r="E446" t="s">
+        <v>70</v>
+      </c>
+      <c r="F446" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>39</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>69</v>
+      </c>
+      <c r="D447" t="n">
+        <v>3440.6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>70</v>
+      </c>
+      <c r="F447" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>40</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" t="s">
+        <v>69</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2136.7</v>
+      </c>
+      <c r="E448" t="s">
+        <v>70</v>
+      </c>
+      <c r="F448" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>41</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="s">
+        <v>69</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1318.7</v>
+      </c>
+      <c r="E449" t="s">
+        <v>70</v>
+      </c>
+      <c r="F449" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
